--- a/docs/test.xlsx
+++ b/docs/test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7020" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7020" uniqueCount="1260">
   <si>
     <t>Current St #</t>
   </si>
@@ -3748,6 +3748,81 @@
   </si>
   <si>
     <t>219_1910</t>
+  </si>
+  <si>
+    <t>1/305 - An's Kitchen, Restaurant 2/305 - Baby Mammoth, Restaurant</t>
+  </si>
+  <si>
+    <t>Georges &amp; Christo, Mixed Businesses, Symonds Edwin, and plant mchnt</t>
+  </si>
+  <si>
+    <t>Mary A Daniels, Furniture Dealer, William Daniels, Carrier</t>
+  </si>
+  <si>
+    <t>Mary A Daniels Furniture Dealer, Jas Wilson, William Daniels, Carrier</t>
+  </si>
+  <si>
+    <t>Jos Rickard, Broker, Mrs A Rickard, Dressmaker</t>
+  </si>
+  <si>
+    <t>c. 1925, second storey 1995</t>
+  </si>
+  <si>
+    <t>Galvin and Co. R, Plumbers supplies, Rear: Premier Engineering Co., brassfounders</t>
+  </si>
+  <si>
+    <t>Jacob Jacobs, I Mossenson, Watchmaker</t>
+  </si>
+  <si>
+    <t>Man Sun J C, laundry, Manchester Unity Hall, MUIOOF lodge</t>
+  </si>
+  <si>
+    <t>W Schapira, Watchmaker, Mrs H Hayman, Fruiterer</t>
+  </si>
+  <si>
+    <t>Dewar &amp; Walsh Grocers, Frederick E (D &amp; W ) Walsh</t>
+  </si>
+  <si>
+    <t>Dewar &amp; Walsh Grocers, Fred T Walsh (D &amp; W)</t>
+  </si>
+  <si>
+    <t>Harry Brandreth, Mrs E. M. Brandreth, Fish Shop</t>
+  </si>
+  <si>
+    <t>Evans F E, watchmaker, Bastian Mrs L, laundry</t>
+  </si>
+  <si>
+    <t>WA Stove Co., Stove Makers, Hassell and Co. Stove Makers</t>
+  </si>
+  <si>
+    <t>Perth General Dealers (yard), Morris Samelowitz, Topelberg E second hand dealers</t>
+  </si>
+  <si>
+    <t>Mrs R Thomas, Fruiterer &amp; Confectioner, David W Thomas</t>
+  </si>
+  <si>
+    <t>Harry Keen, A. E. White</t>
+  </si>
+  <si>
+    <t>Hugh Nolan, Birt Walter, Carrier</t>
+  </si>
+  <si>
+    <t>Mrs M C Lee. Whte Wk, Daniel Hardy</t>
+  </si>
+  <si>
+    <t>Hamilton G C, mix business, Roberts Alex Bookseller and Library</t>
+  </si>
+  <si>
+    <t>Globe furniture Co., store room, Rear: Alpha Products, cardboard box mfr, Ava Confections, confrs mfg</t>
+  </si>
+  <si>
+    <t>Knights Nukleen Serv, drycleaners and dryers, Westphal M A, watchmaker</t>
+  </si>
+  <si>
+    <t>Alfred Kemp, Hairdresser &amp; Tobacconist, Mrs E Kemp, Confectioner.</t>
+  </si>
+  <si>
+    <t>Miss E B Anderson, Storekeeper, Savings Bank Agency, (Miss E B Anderson Agent)</t>
   </si>
 </sst>
 </file>
@@ -4563,9 +4638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DF339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CV16" sqref="CV16"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV79" sqref="AV79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4575,7 +4650,14 @@
     <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
     <col min="5" max="6" width="53.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="29" style="2" customWidth="1"/>
+    <col min="10" max="12" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="84.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="108" width="9.140625" style="2"/>
+    <col min="109" max="109" width="92.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="110" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:110" x14ac:dyDescent="0.25">
@@ -6610,7 +6692,7 @@
         <v>227</v>
       </c>
       <c r="AQ44" s="2" t="s">
-        <v>228</v>
+        <v>1236</v>
       </c>
       <c r="BX44" s="2" t="s">
         <v>229</v>
@@ -6715,10 +6797,10 @@
         <v>242</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>244</v>
+        <v>1238</v>
       </c>
       <c r="X47" s="2" t="s">
         <v>245</v>
@@ -7502,7 +7584,7 @@
         <v>334</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>335</v>
+        <v>1239</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>336</v>
@@ -7866,7 +7948,7 @@
         <v>387</v>
       </c>
       <c r="DF78" s="2" t="s">
-        <v>388</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="79" spans="1:110" x14ac:dyDescent="0.25">
@@ -7892,22 +7974,22 @@
         <v>393</v>
       </c>
       <c r="AQ79" s="2" t="s">
-        <v>394</v>
+        <v>1241</v>
       </c>
       <c r="AR79" s="2" t="s">
-        <v>394</v>
+        <v>1241</v>
       </c>
       <c r="AS79" s="2" t="s">
-        <v>394</v>
+        <v>1241</v>
       </c>
       <c r="AT79" s="2" t="s">
-        <v>394</v>
+        <v>1241</v>
       </c>
       <c r="AU79" s="2" t="s">
-        <v>394</v>
+        <v>1241</v>
       </c>
       <c r="AV79" s="2" t="s">
-        <v>394</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="80" spans="1:110" ht="30" x14ac:dyDescent="0.25">
@@ -7979,7 +8061,7 @@
         <v>411</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>412</v>
+        <v>1242</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>413</v>
@@ -9274,7 +9356,7 @@
         <v>560</v>
       </c>
       <c r="AQ118" s="2" t="s">
-        <v>561</v>
+        <v>1243</v>
       </c>
       <c r="BY118" s="2" t="s">
         <v>562</v>
@@ -10419,7 +10501,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="165" spans="1:110" ht="165" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>305</v>
       </c>
@@ -10430,7 +10512,7 @@
         <v>368</v>
       </c>
       <c r="DE165" s="3" t="s">
-        <v>740</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="166" spans="1:110" x14ac:dyDescent="0.25">
@@ -10507,7 +10589,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="170" spans="1:110" ht="240" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:110" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>310</v>
       </c>
@@ -10858,7 +10940,7 @@
         <v>782</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>783</v>
+        <v>1244</v>
       </c>
       <c r="AQ178" s="2" t="s">
         <v>784</v>
@@ -10925,10 +11007,10 @@
         <v>781</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>793</v>
+        <v>1245</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>794</v>
+        <v>1246</v>
       </c>
       <c r="AQ180" s="2" t="s">
         <v>795</v>
@@ -11203,13 +11285,13 @@
         <v>826</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>827</v>
+        <v>1247</v>
       </c>
       <c r="N199" s="2" t="s">
         <v>828</v>
       </c>
       <c r="AQ199" s="2" t="s">
-        <v>829</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="200" spans="1:106" ht="30" x14ac:dyDescent="0.25">
@@ -11235,7 +11317,7 @@
         <v>834</v>
       </c>
       <c r="AQ200" s="2" t="s">
-        <v>835</v>
+        <v>1249</v>
       </c>
       <c r="DB200" s="2" t="s">
         <v>836</v>
@@ -11582,7 +11664,7 @@
         <v>867</v>
       </c>
       <c r="AQ210" s="2" t="s">
-        <v>870</v>
+        <v>1250</v>
       </c>
       <c r="AR210" s="2" t="s">
         <v>867</v>
@@ -11819,7 +11901,7 @@
         <v>880</v>
       </c>
       <c r="N216" s="2" t="s">
-        <v>881</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -11978,7 +12060,7 @@
         <v>366</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>898</v>
+        <v>1252</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>899</v>
@@ -12021,7 +12103,7 @@
         <v>367</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>905</v>
+        <v>1253</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>906</v>
@@ -12489,7 +12571,7 @@
         <v>986</v>
       </c>
       <c r="N252" s="2" t="s">
-        <v>987</v>
+        <v>1254</v>
       </c>
       <c r="AQ252" s="2" t="s">
         <v>988</v>
@@ -12550,7 +12632,7 @@
         <v>996</v>
       </c>
       <c r="AQ254" s="2" t="s">
-        <v>997</v>
+        <v>1255</v>
       </c>
       <c r="CA254" s="2" t="s">
         <v>934</v>
@@ -13483,7 +13565,7 @@
         <v>1155</v>
       </c>
       <c r="AQ313" s="2" t="s">
-        <v>1156</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="314" spans="1:110" x14ac:dyDescent="0.25">
@@ -13905,7 +13987,7 @@
         <v>1215</v>
       </c>
       <c r="AQ338" s="2" t="s">
-        <v>1216</v>
+        <v>1257</v>
       </c>
       <c r="DA338" s="2" t="s">
         <v>1217</v>
@@ -13934,10 +14016,10 @@
         <v>1221</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>1222</v>
+        <v>1258</v>
       </c>
       <c r="N339" s="2" t="s">
-        <v>1223</v>
+        <v>1259</v>
       </c>
       <c r="AQ339" s="2" t="s">
         <v>1224</v>
